--- a/keyrate50a-0.28b-3nodenum-50.xlsx
+++ b/keyrate50a-0.28b-3nodenum-50.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,412 +490,330 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>9.800000000000001</v>
+        <v>-0.4263999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.1528</v>
       </c>
       <c r="G2" t="n">
-        <v>9.800000000000001</v>
+        <v>-0.3220000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1326.530612244898</v>
+        <v>304</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="J2" t="n">
-        <v>1387.755102040816</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>50</v>
+        <v>-1066</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>-805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B3" t="n">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>9.800000000000001</v>
+        <v>0.5652000000000003</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.1528</v>
       </c>
       <c r="G3" t="n">
-        <v>9.800000000000001</v>
+        <v>0.7312000000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1665.30612244898</v>
+        <v>703.5714285714286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J3" t="n">
-        <v>1738.775510204082</v>
+        <v>411</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>49.99999999999998</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="B4" t="n">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>9.800000000000001</v>
+        <v>1.702399999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.1528</v>
       </c>
       <c r="G4" t="n">
-        <v>9.800000000000001</v>
+        <v>1.7888</v>
       </c>
       <c r="H4" t="n">
-        <v>2028.571428571429</v>
+        <v>917.6470588235294</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="J4" t="n">
-        <v>2100</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>70</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="B5" t="n">
-        <v>0.96</v>
+        <v>0.68</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>9.6</v>
+        <v>2.3824</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.152800000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>9.6</v>
+        <v>2.8528</v>
       </c>
       <c r="H5" t="n">
-        <v>2483.333333333333</v>
+        <v>1147.058823529412</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="J5" t="n">
-        <v>2516.666666666667</v>
+        <v>650</v>
       </c>
       <c r="K5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>50.00000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>9.4</v>
+        <v>3.0624</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.152800000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>9.4</v>
+        <v>3.8384</v>
       </c>
       <c r="H6" t="n">
-        <v>2929.787234042553</v>
+        <v>1376.470588235294</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="J6" t="n">
-        <v>2987.234042553192</v>
+        <v>786</v>
       </c>
       <c r="K6" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="B7" t="n">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7424</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.152800000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>9.199999999999999</v>
+        <v>4.8932</v>
       </c>
       <c r="H7" t="n">
-        <v>3434.782608695652</v>
+        <v>1605.882352941177</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="J7" t="n">
-        <v>3521.739130434783</v>
+        <v>917</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="B8" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>8.6</v>
+        <v>4.4224</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.152800000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.6</v>
+        <v>5.919200000000003</v>
       </c>
       <c r="H8" t="n">
-        <v>3965.116279069768</v>
+        <v>1835.294117647059</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="J8" t="n">
-        <v>4016.279069767442</v>
+        <v>1048</v>
       </c>
       <c r="K8" t="n">
-        <v>110</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>110</v>
+        <v>49.99999999999997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="B9" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>8.6</v>
+        <v>5.102399999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7.152800000000002</v>
       </c>
       <c r="G9" t="n">
-        <v>8.6</v>
+        <v>6.944800000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>4493.023255813953</v>
+        <v>2064.705882352941</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="J9" t="n">
-        <v>4520.930232558139</v>
+        <v>1224</v>
       </c>
       <c r="K9" t="n">
-        <v>120</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>130</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5234.210526315789</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5234.210526315789</v>
-      </c>
-      <c r="K10" t="n">
-        <v>130</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>140</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6458.064516129032</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6458.064516129032</v>
-      </c>
-      <c r="K11" t="n">
-        <v>140</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>140</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
   </sheetData>
